--- a/AAII_Financials/Yearly/IBEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>IBEX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,83 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42186</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>405100</v>
+      </c>
+      <c r="E8" s="3">
         <v>368400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>342200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>334500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>323700</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,9 +766,12 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -827,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,9 +870,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -866,51 +885,57 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E15" s="3">
         <v>20900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12700</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +944,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>385600</v>
+      </c>
+      <c r="E17" s="3">
         <v>361600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>360000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>336900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>315100</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E18" s="3">
         <v>6800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,8 +1018,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -995,134 +1028,149 @@
         <v>-500</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E21" s="3">
         <v>28200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20800</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E22" s="3">
         <v>7300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3400</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,21 +1285,24 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>15500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>4900</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,9 +1375,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1319,53 +1388,59 @@
         <v>500</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>11000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>11000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42186</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,35 +1561,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E41" s="3">
         <v>8900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1529,36 +1618,42 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E43" s="3">
         <v>68400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>62200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>53500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>43300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1583,144 +1678,162 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E46" s="3">
         <v>81800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>82000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>88600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>80700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>58400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>27700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>13900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5500</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E48" s="3">
         <v>82300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E49" s="3">
         <v>14800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>21000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24600</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1888,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E52" s="3">
         <v>9200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1948,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>195200</v>
+      </c>
+      <c r="E54" s="3">
         <v>188300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>157100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>152200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>138400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>108000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,116 +2009,129 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E57" s="3">
         <v>10300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E58" s="3">
         <v>52500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>53100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>43300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23800</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48600</v>
+        <v>54400</v>
       </c>
       <c r="E59" s="3">
         <v>48600</v>
       </c>
       <c r="F59" s="3">
+        <v>48600</v>
+      </c>
+      <c r="G59" s="3">
         <v>41500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>39300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>105700</v>
+      </c>
+      <c r="E60" s="3">
         <v>111400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>116200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>67200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1997,53 +2139,59 @@
         <v>65800</v>
       </c>
       <c r="E61" s="3">
+        <v>65800</v>
+      </c>
+      <c r="F61" s="3">
         <v>9900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2276,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>179100</v>
+      </c>
+      <c r="E66" s="3">
         <v>179700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>129100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>123500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>122300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>90900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2226,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>20000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2440,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-87600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-88300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-87500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2560,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E76" s="3">
         <v>8600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42186</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>11000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2702,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E83" s="3">
         <v>21800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2879,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2926,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3013,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,53 +3177,59 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -2989,34 +3237,40 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IBEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>IBEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,89 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42186</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>443700</v>
+      </c>
+      <c r="E8" s="3">
         <v>405100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>368400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>342200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>334500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>323700</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,9 +775,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,14 +889,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -888,54 +907,60 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E15" s="3">
         <v>24500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12700</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>429900</v>
+      </c>
+      <c r="E17" s="3">
         <v>385600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>361600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>360000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>336900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>315100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E18" s="3">
         <v>19500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>-500</v>
       </c>
       <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E21" s="3">
         <v>43500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>28200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E22" s="3">
         <v>8900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>10100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3400</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,14 +1358,14 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>15500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>4900</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>500</v>
       </c>
       <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42186</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,38 +1647,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E41" s="3">
         <v>21900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,39 +1710,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E43" s="3">
         <v>59400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>68400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>62200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>53500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1681,69 +1776,78 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E46" s="3">
         <v>86000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>81800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>82000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>88600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>80700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>58400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1751,89 +1855,98 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
+        <v>300</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>13900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5500</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>106700</v>
+      </c>
+      <c r="E48" s="3">
         <v>84600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>82300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>18000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E49" s="3">
         <v>14600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24600</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E52" s="3">
         <v>9700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>274300</v>
+      </c>
+      <c r="E54" s="3">
         <v>195200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>188300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>157100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>152200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>138400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>108000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,98 +2139,108 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E57" s="3">
         <v>11100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E58" s="3">
         <v>40100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>52500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>53100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>46500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E59" s="3">
         <v>54400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>48600</v>
       </c>
       <c r="F59" s="3">
         <v>48600</v>
       </c>
       <c r="G59" s="3">
+        <v>48600</v>
+      </c>
+      <c r="H59" s="3">
         <v>41500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>39300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2109,89 +2248,98 @@
         <v>105700</v>
       </c>
       <c r="E60" s="3">
+        <v>105700</v>
+      </c>
+      <c r="F60" s="3">
         <v>111400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>116200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>67200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>65800</v>
+        <v>73700</v>
       </c>
       <c r="E61" s="3">
         <v>65800</v>
       </c>
       <c r="F61" s="3">
+        <v>65800</v>
+      </c>
+      <c r="G61" s="3">
         <v>9900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E62" s="3">
         <v>7600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>193600</v>
+      </c>
+      <c r="E66" s="3">
         <v>179100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>179700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>129100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>123500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>122300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>90900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2396,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>20000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-80100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-87600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-88300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-87500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E76" s="3">
         <v>16100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42186</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E83" s="3">
         <v>24500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E89" s="3">
         <v>51700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,13 +3293,14 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,59 +3422,65 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-33900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>12200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3240,37 +3488,43 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IBEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>IBEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,95 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42186</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>493600</v>
+      </c>
+      <c r="E8" s="3">
         <v>443700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>405100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>368400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>342200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>334500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>323700</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,9 +784,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,9 +820,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E15" s="3">
         <v>28200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>24500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>13800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>463800</v>
+      </c>
+      <c r="E17" s="3">
         <v>429900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>385600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>361600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>360000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>336900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>315100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E18" s="3">
         <v>13800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-500</v>
       </c>
       <c r="F20" s="3">
         <v>-500</v>
       </c>
       <c r="G20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E21" s="3">
         <v>41800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>43500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E22" s="3">
         <v>8800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,27 +1405,30 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>15500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>4900</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>500</v>
       </c>
       <c r="F32" s="3">
         <v>500</v>
       </c>
       <c r="G32" s="3">
+        <v>500</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42186</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,41 +1733,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E41" s="3">
         <v>57800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,42 +1802,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E43" s="3">
         <v>76800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>59400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>68400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>62200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>53500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1779,174 +1874,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E46" s="3">
         <v>141400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>86000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>81800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>82000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>88600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>80700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>58400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
       </c>
       <c r="F47" s="3">
+        <v>300</v>
+      </c>
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5500</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E48" s="3">
         <v>106700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>84600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>82300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>23300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>18000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E49" s="3">
         <v>15000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>290100</v>
+      </c>
+      <c r="E54" s="3">
         <v>274300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>195200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>188300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>157100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>152200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>138400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>108000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>13500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E58" s="3">
         <v>38800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>40100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>52500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>53100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>46500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E59" s="3">
         <v>59600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>54400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>48600</v>
       </c>
       <c r="G59" s="3">
         <v>48600</v>
       </c>
       <c r="H59" s="3">
+        <v>48600</v>
+      </c>
+      <c r="I59" s="3">
         <v>41500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>39300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>105700</v>
+        <v>102400</v>
       </c>
       <c r="E60" s="3">
         <v>105700</v>
       </c>
       <c r="F60" s="3">
+        <v>105700</v>
+      </c>
+      <c r="G60" s="3">
         <v>111400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>116200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>99400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E61" s="3">
         <v>73700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>65800</v>
       </c>
       <c r="F61" s="3">
         <v>65800</v>
       </c>
       <c r="G61" s="3">
+        <v>65800</v>
+      </c>
+      <c r="H61" s="3">
         <v>9900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E62" s="3">
         <v>14200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E66" s="3">
         <v>193600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>179100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>179700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>129100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>123500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>122300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>90900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2566,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>20000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-80100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-87600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-88300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-87500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100300</v>
+      </c>
+      <c r="E76" s="3">
         <v>80700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42186</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E83" s="3">
         <v>28200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E89" s="3">
         <v>25900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>51700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,17 +3526,18 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,65 +3667,71 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="E100" s="3">
         <v>30400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3491,40 +3739,46 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>36000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3600</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/IBEX_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IBEX_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>IBEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,112 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42186</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>493600</v>
+        <v>523100</v>
       </c>
       <c r="E8" s="3">
-        <v>443700</v>
+        <v>492900</v>
       </c>
       <c r="F8" s="3">
+        <v>443400</v>
+      </c>
+      <c r="G8" s="3">
         <v>405100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>368400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>342200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>334500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>323700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>341800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>343000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>335200</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,8 +781,8 @@
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>34800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -787,20 +793,23 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>181300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>149900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>108100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -811,8 +820,8 @@
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>299700</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -823,9 +832,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>34200</v>
+        <v>19000</v>
       </c>
       <c r="E15" s="3">
-        <v>28200</v>
+        <v>18100</v>
       </c>
       <c r="F15" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G15" s="3">
         <v>24500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>463800</v>
+        <v>482600</v>
       </c>
       <c r="E17" s="3">
-        <v>429900</v>
+        <v>472200</v>
       </c>
       <c r="F17" s="3">
+        <v>426300</v>
+      </c>
+      <c r="G17" s="3">
         <v>385600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>361600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>360000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>336900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>315100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29800</v>
+        <v>40500</v>
       </c>
       <c r="E18" s="3">
-        <v>13800</v>
+        <v>20600</v>
       </c>
       <c r="F18" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G18" s="3">
         <v>19500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-17800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-200</v>
+        <v>1100</v>
       </c>
       <c r="F20" s="3">
-        <v>-500</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>63700</v>
+        <v>59500</v>
       </c>
       <c r="E21" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="F21" s="3">
+        <v>32900</v>
+      </c>
+      <c r="G21" s="3">
         <v>43500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8500</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>8800</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G22" s="3">
         <v>8900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21000</v>
+        <v>40300</v>
       </c>
       <c r="E23" s="3">
-        <v>4800</v>
+        <v>19400</v>
       </c>
       <c r="F23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G23" s="3">
         <v>10100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-2000</v>
+        <v>8700</v>
       </c>
       <c r="E24" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>23000</v>
+        <v>31600</v>
       </c>
       <c r="E26" s="3">
-        <v>2800</v>
+        <v>21500</v>
       </c>
       <c r="F26" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G26" s="3">
         <v>7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>23000</v>
+        <v>31600</v>
       </c>
       <c r="E27" s="3">
-        <v>2800</v>
+        <v>21500</v>
       </c>
       <c r="F27" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G27" s="3">
         <v>7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,30 +1465,33 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>15500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>4900</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>200</v>
+        <v>-1100</v>
       </c>
       <c r="F32" s="3">
-        <v>500</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
+        <v>500</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>23000</v>
+        <v>31600</v>
       </c>
       <c r="E33" s="3">
-        <v>2800</v>
+        <v>21500</v>
       </c>
       <c r="F33" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G33" s="3">
         <v>7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>23000</v>
+        <v>31600</v>
       </c>
       <c r="E35" s="3">
-        <v>2800</v>
+        <v>21500</v>
       </c>
       <c r="F35" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G35" s="3">
         <v>7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42186</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,44 +1819,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48800</v>
+        <v>57400</v>
       </c>
       <c r="E41" s="3">
+        <v>97700</v>
+      </c>
+      <c r="F41" s="3">
         <v>57800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1805,45 +1894,51 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>85600</v>
+        <v>92400</v>
       </c>
       <c r="E43" s="3">
+        <v>89800</v>
+      </c>
+      <c r="F43" s="3">
         <v>76800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>68400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>62200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>53500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,189 +1972,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E45" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>143300</v>
+        <v>158600</v>
       </c>
       <c r="E46" s="3">
+        <v>142400</v>
+      </c>
+      <c r="F46" s="3">
         <v>141400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>86000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>81800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>82000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>88600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>80700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>58400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
+        <v>300</v>
+      </c>
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5500</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>116600</v>
+        <v>112100</v>
       </c>
       <c r="E48" s="3">
+        <v>118600</v>
+      </c>
+      <c r="F48" s="3">
         <v>106700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>84600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>82300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>18900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14900</v>
+        <v>12500</v>
       </c>
       <c r="E49" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F49" s="3">
         <v>15000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>21000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15000</v>
+        <v>10100</v>
       </c>
       <c r="E52" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F52" s="3">
         <v>10900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>290100</v>
+        <v>293300</v>
       </c>
       <c r="E54" s="3">
+        <v>294200</v>
+      </c>
+      <c r="F54" s="3">
         <v>274300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>195200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>188300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>157100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>152200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>138400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8900</v>
+        <v>18700</v>
       </c>
       <c r="E57" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F57" s="3">
         <v>7200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>13500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28400</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F58" s="3">
         <v>38800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>40100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>52500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>53100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>46500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>65100</v>
+        <v>54100</v>
       </c>
       <c r="E59" s="3">
+        <v>100900</v>
+      </c>
+      <c r="F59" s="3">
         <v>59600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>54400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>48600</v>
       </c>
       <c r="H59" s="3">
         <v>48600</v>
       </c>
       <c r="I59" s="3">
+        <v>48600</v>
+      </c>
+      <c r="J59" s="3">
         <v>41500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>39300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>102400</v>
+        <v>73300</v>
       </c>
       <c r="E60" s="3">
-        <v>105700</v>
+        <v>97800</v>
       </c>
       <c r="F60" s="3">
         <v>105700</v>
       </c>
       <c r="G60" s="3">
+        <v>105700</v>
+      </c>
+      <c r="H60" s="3">
         <v>111400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>116200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>99900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>99400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76300</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
         <v>73700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>65800</v>
       </c>
       <c r="G61" s="3">
         <v>65800</v>
       </c>
       <c r="H61" s="3">
+        <v>65800</v>
+      </c>
+      <c r="I61" s="3">
         <v>9900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>14700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11100</v>
+        <v>69500</v>
       </c>
       <c r="E62" s="3">
+        <v>89400</v>
+      </c>
+      <c r="F62" s="3">
         <v>14200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>9000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>189800</v>
+        <v>143400</v>
       </c>
       <c r="E66" s="3">
+        <v>180700</v>
+      </c>
+      <c r="F66" s="3">
         <v>193600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>179100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>179700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>129100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>123500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>122300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2736,13 +2903,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>20000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-54500</v>
+        <v>-44800</v>
       </c>
       <c r="E72" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-77500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-80100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-87600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-88300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-87500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100300</v>
+        <v>150000</v>
       </c>
       <c r="E76" s="3">
+        <v>113500</v>
+      </c>
+      <c r="F76" s="3">
         <v>80700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42186</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>23000</v>
+        <v>31600</v>
       </c>
       <c r="E81" s="3">
-        <v>2800</v>
+        <v>21500</v>
       </c>
       <c r="F81" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G81" s="3">
         <v>7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34200</v>
+        <v>19000</v>
       </c>
       <c r="E83" s="3">
-        <v>28200</v>
+        <v>18100</v>
       </c>
       <c r="F83" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G83" s="3">
         <v>24500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50100</v>
+        <v>41900</v>
       </c>
       <c r="E89" s="3">
-        <v>25900</v>
+        <v>40000</v>
       </c>
       <c r="F89" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G89" s="3">
         <v>51700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24600</v>
+        <v>-19000</v>
       </c>
       <c r="E91" s="3">
-        <v>-19400</v>
+        <v>-25900</v>
       </c>
       <c r="F91" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-4300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24900</v>
+        <v>-19000</v>
       </c>
       <c r="E94" s="3">
-        <v>-20200</v>
+        <v>-25900</v>
       </c>
       <c r="F94" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3536,11 +3769,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-4000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3562,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,71 +3912,77 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-33300</v>
+        <v>-13600</v>
       </c>
       <c r="E100" s="3">
-        <v>30400</v>
+        <v>-22100</v>
       </c>
       <c r="F100" s="3">
+        <v>40900</v>
+      </c>
+      <c r="G100" s="3">
         <v>-33900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3742,43 +3990,49 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>36000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
